--- a/business-center/wms-center/wms-service/wms-business-returnex/src/main/resources/template/Return_Processing_Template.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-returnex/src/main/resources/template/Return_Processing_Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7270"/>
+    <workbookView windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Reassigned Data Table" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Forecast Number
 （Required）</t>
@@ -41,6 +41,10 @@
   </si>
   <si>
     <t>VAT
+（Not Required）</t>
+  </si>
+  <si>
+    <t>house No
 （Not Required）</t>
   </si>
   <si>
@@ -1141,33 +1145,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="37" style="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1818181818182" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7272727272727" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.3636363636364" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.9090909090909" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.9090909090909" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5454545454545" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.0909090909091" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1818181818182" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.3727272727273" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.4545454545455" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.0909090909091" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5454545454545" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7545454545455" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.3636363636364" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.725" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.9083333333333" style="1" customWidth="1"/>
+    <col min="7" max="8" width="16.9083333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5416666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.0916666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1833333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.4583333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.0916666666667" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5416666666667" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7583333333333" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.3666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="58" customHeight="1" spans="1:16">
+    <row r="1" customFormat="1" ht="58" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1192,13 +1196,13 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -1213,27 +1217,27 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="6" t="s">
@@ -1245,13 +1249,16 @@
       <c r="N2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="6" t="s">
         <v>25</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" ht="61" customHeight="1" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
